--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.5848033250791</v>
+        <v>0.06414266666666667</v>
       </c>
       <c r="H2">
-        <v>3.5848033250791</v>
+        <v>0.192428</v>
       </c>
       <c r="I2">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="J2">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.51345754371974</v>
+        <v>2.672731</v>
       </c>
       <c r="N2">
-        <v>1.51345754371974</v>
+        <v>8.018193</v>
       </c>
       <c r="O2">
-        <v>0.7365294301044524</v>
+        <v>0.5408378022089502</v>
       </c>
       <c r="P2">
-        <v>0.7365294301044524</v>
+        <v>0.5408378022089503</v>
       </c>
       <c r="Q2">
-        <v>5.425447635092572</v>
+        <v>0.1714360936226667</v>
       </c>
       <c r="R2">
-        <v>5.425447635092572</v>
+        <v>1.542924842604</v>
       </c>
       <c r="S2">
-        <v>0.6165368284229171</v>
+        <v>0.006307862388980834</v>
       </c>
       <c r="T2">
-        <v>0.6165368284229171</v>
+        <v>0.006307862388980834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.5848033250791</v>
+        <v>0.06414266666666667</v>
       </c>
       <c r="H3">
-        <v>3.5848033250791</v>
+        <v>0.192428</v>
       </c>
       <c r="I3">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="J3">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.541392516385945</v>
+        <v>1.627877666666667</v>
       </c>
       <c r="N3">
-        <v>0.541392516385945</v>
+        <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.2634705698955476</v>
+        <v>0.3294075533620981</v>
       </c>
       <c r="P3">
-        <v>0.2634705698955476</v>
+        <v>0.3294075533620982</v>
       </c>
       <c r="Q3">
-        <v>1.940785692913277</v>
+        <v>0.1044164145471111</v>
       </c>
       <c r="R3">
-        <v>1.940785692913277</v>
+        <v>0.9397477309239999</v>
       </c>
       <c r="S3">
-        <v>0.2205469366283745</v>
+        <v>0.003841923600777087</v>
       </c>
       <c r="T3">
-        <v>0.2205469366283745</v>
+        <v>0.003841923600777087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.697687238884285</v>
+        <v>0.06414266666666667</v>
       </c>
       <c r="H4">
-        <v>0.697687238884285</v>
+        <v>0.192428</v>
       </c>
       <c r="I4">
-        <v>0.1629162349487082</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="J4">
-        <v>0.1629162349487082</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.51345754371974</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N4">
-        <v>1.51345754371974</v>
+        <v>0.055589</v>
       </c>
       <c r="O4">
-        <v>0.7365294301044524</v>
+        <v>0.003749552123152102</v>
       </c>
       <c r="P4">
-        <v>0.7365294301044524</v>
+        <v>0.003749552123152104</v>
       </c>
       <c r="Q4">
-        <v>1.055920014846417</v>
+        <v>0.001188542232444444</v>
       </c>
       <c r="R4">
-        <v>1.055920014846417</v>
+        <v>0.010696880092</v>
       </c>
       <c r="S4">
-        <v>0.1199926016815352</v>
+        <v>4.373151935118742E-05</v>
       </c>
       <c r="T4">
-        <v>0.1199926016815352</v>
+        <v>4.373151935118743E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06414266666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.192428</v>
+      </c>
+      <c r="I5">
+        <v>0.01166313146606535</v>
+      </c>
+      <c r="J5">
+        <v>0.01166313146606535</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6226963333333334</v>
+      </c>
+      <c r="N5">
+        <v>1.868089</v>
+      </c>
+      <c r="O5">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="P5">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="Q5">
+        <v>0.03994140334355556</v>
+      </c>
+      <c r="R5">
+        <v>0.359472630092</v>
+      </c>
+      <c r="S5">
+        <v>0.001469613956956239</v>
+      </c>
+      <c r="T5">
+        <v>0.001469613956956239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.404016666666667</v>
+      </c>
+      <c r="H6">
+        <v>13.21205</v>
+      </c>
+      <c r="I6">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="J6">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>2.672731</v>
+      </c>
+      <c r="N6">
+        <v>8.018193</v>
+      </c>
+      <c r="O6">
+        <v>0.5408378022089502</v>
+      </c>
+      <c r="P6">
+        <v>0.5408378022089503</v>
+      </c>
+      <c r="Q6">
+        <v>11.77075186951667</v>
+      </c>
+      <c r="R6">
+        <v>105.93676682565</v>
+      </c>
+      <c r="S6">
+        <v>0.4330959801917301</v>
+      </c>
+      <c r="T6">
+        <v>0.4330959801917302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.404016666666667</v>
+      </c>
+      <c r="H7">
+        <v>13.21205</v>
+      </c>
+      <c r="I7">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="J7">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.627877666666667</v>
+      </c>
+      <c r="N7">
+        <v>4.883633</v>
+      </c>
+      <c r="O7">
+        <v>0.3294075533620981</v>
+      </c>
+      <c r="P7">
+        <v>0.3294075533620982</v>
+      </c>
+      <c r="Q7">
+        <v>7.169200375294444</v>
+      </c>
+      <c r="R7">
+        <v>64.52280337765001</v>
+      </c>
+      <c r="S7">
+        <v>0.2637853467772201</v>
+      </c>
+      <c r="T7">
+        <v>0.2637853467772202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.404016666666667</v>
+      </c>
+      <c r="H8">
+        <v>13.21205</v>
+      </c>
+      <c r="I8">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="J8">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01852966666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.055589</v>
+      </c>
+      <c r="O8">
+        <v>0.003749552123152102</v>
+      </c>
+      <c r="P8">
+        <v>0.003749552123152104</v>
+      </c>
+      <c r="Q8">
+        <v>0.08160496082777778</v>
+      </c>
+      <c r="R8">
+        <v>0.73444464745</v>
+      </c>
+      <c r="S8">
+        <v>0.003002593282910262</v>
+      </c>
+      <c r="T8">
+        <v>0.003002593282910263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.404016666666667</v>
+      </c>
+      <c r="H9">
+        <v>13.21205</v>
+      </c>
+      <c r="I9">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="J9">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6226963333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.868089</v>
+      </c>
+      <c r="O9">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="P9">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="Q9">
+        <v>2.742365030272223</v>
+      </c>
+      <c r="R9">
+        <v>24.68128527245</v>
+      </c>
+      <c r="S9">
+        <v>0.1009032629347272</v>
+      </c>
+      <c r="T9">
+        <v>0.1009032629347272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.697687238884285</v>
-      </c>
-      <c r="H5">
-        <v>0.697687238884285</v>
-      </c>
-      <c r="I5">
-        <v>0.1629162349487082</v>
-      </c>
-      <c r="J5">
-        <v>0.1629162349487082</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.541392516385945</v>
-      </c>
-      <c r="N5">
-        <v>0.541392516385945</v>
-      </c>
-      <c r="O5">
-        <v>0.2634705698955476</v>
-      </c>
-      <c r="P5">
-        <v>0.2634705698955476</v>
-      </c>
-      <c r="Q5">
-        <v>0.377722649909925</v>
-      </c>
-      <c r="R5">
-        <v>0.377722649909925</v>
-      </c>
-      <c r="S5">
-        <v>0.04292363326717308</v>
-      </c>
-      <c r="T5">
-        <v>0.04292363326717308</v>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7371253333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.211376</v>
+      </c>
+      <c r="I10">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="J10">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>2.672731</v>
+      </c>
+      <c r="N10">
+        <v>8.018193</v>
+      </c>
+      <c r="O10">
+        <v>0.5408378022089502</v>
+      </c>
+      <c r="P10">
+        <v>0.5408378022089503</v>
+      </c>
+      <c r="Q10">
+        <v>1.970137729285333</v>
+      </c>
+      <c r="R10">
+        <v>17.731239563568</v>
+      </c>
+      <c r="S10">
+        <v>0.07248973901040845</v>
+      </c>
+      <c r="T10">
+        <v>0.07248973901040848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7371253333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.211376</v>
+      </c>
+      <c r="I11">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="J11">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.627877666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.883633</v>
+      </c>
+      <c r="O11">
+        <v>0.3294075533620981</v>
+      </c>
+      <c r="P11">
+        <v>0.3294075533620982</v>
+      </c>
+      <c r="Q11">
+        <v>1.199949867667556</v>
+      </c>
+      <c r="R11">
+        <v>10.799548809008</v>
+      </c>
+      <c r="S11">
+        <v>0.04415125472692139</v>
+      </c>
+      <c r="T11">
+        <v>0.04415125472692141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7371253333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.211376</v>
+      </c>
+      <c r="I12">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="J12">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01852966666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.055589</v>
+      </c>
+      <c r="O12">
+        <v>0.003749552123152102</v>
+      </c>
+      <c r="P12">
+        <v>0.003749552123152104</v>
+      </c>
+      <c r="Q12">
+        <v>0.01365868671822222</v>
+      </c>
+      <c r="R12">
+        <v>0.122928180464</v>
+      </c>
+      <c r="S12">
+        <v>0.0005025611259107376</v>
+      </c>
+      <c r="T12">
+        <v>0.0005025611259107378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7371253333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.211376</v>
+      </c>
+      <c r="I13">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="J13">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6226963333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.868089</v>
+      </c>
+      <c r="O13">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="P13">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="Q13">
+        <v>0.4590052422737778</v>
+      </c>
+      <c r="R13">
+        <v>4.131047180464</v>
+      </c>
+      <c r="S13">
+        <v>0.016888753371017</v>
+      </c>
+      <c r="T13">
+        <v>0.016888753371017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2943246666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.8829739999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.05351737711308948</v>
+      </c>
+      <c r="J14">
+        <v>0.05351737711308949</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>2.672731</v>
+      </c>
+      <c r="N14">
+        <v>8.018193</v>
+      </c>
+      <c r="O14">
+        <v>0.5408378022089502</v>
+      </c>
+      <c r="P14">
+        <v>0.5408378022089503</v>
+      </c>
+      <c r="Q14">
+        <v>0.7866506606646666</v>
+      </c>
+      <c r="R14">
+        <v>7.079855945982</v>
+      </c>
+      <c r="S14">
+        <v>0.02894422061783088</v>
+      </c>
+      <c r="T14">
+        <v>0.02894422061783089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2943246666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.8829739999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.05351737711308948</v>
+      </c>
+      <c r="J15">
+        <v>0.05351737711308949</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.627877666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.883633</v>
+      </c>
+      <c r="O15">
+        <v>0.3294075533620981</v>
+      </c>
+      <c r="P15">
+        <v>0.3294075533620982</v>
+      </c>
+      <c r="Q15">
+        <v>0.4791245516157777</v>
+      </c>
+      <c r="R15">
+        <v>4.312120964541999</v>
+      </c>
+      <c r="S15">
+        <v>0.01762902825717955</v>
+      </c>
+      <c r="T15">
+        <v>0.01762902825717956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2943246666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.8829739999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.05351737711308948</v>
+      </c>
+      <c r="J16">
+        <v>0.05351737711308949</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01852966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.055589</v>
+      </c>
+      <c r="O16">
+        <v>0.003749552123152102</v>
+      </c>
+      <c r="P16">
+        <v>0.003749552123152104</v>
+      </c>
+      <c r="Q16">
+        <v>0.00545373796511111</v>
+      </c>
+      <c r="R16">
+        <v>0.049083641686</v>
+      </c>
+      <c r="S16">
+        <v>0.0002006661949799164</v>
+      </c>
+      <c r="T16">
+        <v>0.0002006661949799165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2943246666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.8829739999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.05351737711308948</v>
+      </c>
+      <c r="J17">
+        <v>0.05351737711308949</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6226963333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.868089</v>
+      </c>
+      <c r="O17">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="P17">
+        <v>0.1260050923057995</v>
+      </c>
+      <c r="Q17">
+        <v>0.1832748907428889</v>
+      </c>
+      <c r="R17">
+        <v>1.649474016686</v>
+      </c>
+      <c r="S17">
+        <v>0.006743462043099122</v>
+      </c>
+      <c r="T17">
+        <v>0.006743462043099125</v>
       </c>
     </row>
   </sheetData>
